--- a/indextrends/index/overall index.xlsx
+++ b/indextrends/index/overall index.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38380" yWindow="480" windowWidth="38400" windowHeight="19780" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="19200" windowHeight="19780" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="8" r:id="rId1"/>
     <sheet name="communications privacy" sheetId="1" r:id="rId2"/>
-    <sheet name="govt monitoring social media" sheetId="2" r:id="rId3"/>
+    <sheet name="apps and privacy" sheetId="2" r:id="rId3"/>
     <sheet name="deleting apps" sheetId="3" r:id="rId4"/>
     <sheet name="deleting social media accounts" sheetId="4" r:id="rId5"/>
-    <sheet name="search anonimity" sheetId="5" r:id="rId6"/>
+    <sheet name="search anonymity" sheetId="5" r:id="rId6"/>
     <sheet name="social media settings &amp; privacy" sheetId="6" r:id="rId7"/>
-    <sheet name="web anonimity" sheetId="7" r:id="rId8"/>
+    <sheet name="web anonymity" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -71,12 +71,6 @@
 social media (scaled to most private browser)</t>
   </si>
   <si>
-    <t>web anonimity index (non-relative)</t>
-  </si>
-  <si>
-    <t>web anonimity index scaled to government monitoring social media (non-relative)</t>
-  </si>
-  <si>
     <t>government monitoring 
 social media (scaled to how to change facebook privacy settings)</t>
   </si>
@@ -93,14 +87,6 @@
   <si>
     <t>government monitoring 
 social media (scaled to search without history)</t>
-  </si>
-  <si>
-    <t>search anonimity index
-(non-relative)</t>
-  </si>
-  <si>
-    <t>search anonimity index scaled to governemt monitoring social media
-(non-relative)</t>
   </si>
   <si>
     <t>how to change 
@@ -187,14 +173,28 @@
     <t>deleting social media accounts index trends</t>
   </si>
   <si>
-    <t>search anonimity index
+    <t>social media settings &amp; privacy index trends</t>
+  </si>
+  <si>
+    <t>search anonymity index
+(non-relative)</t>
+  </si>
+  <si>
+    <t>search anonymity index
 trends</t>
   </si>
   <si>
-    <t>social media settings &amp; privacy index trends</t>
+    <t>search anonymity index scaled to governemt monitoring social media
+(non-relative)</t>
   </si>
   <si>
-    <t>web anonimity index trends</t>
+    <t>web anonymity index (non-relative)</t>
+  </si>
+  <si>
+    <t>web anonymity index trends</t>
+  </si>
+  <si>
+    <t>web anonymity index scaled to government monitoring social media (non-relative)</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,11 +861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1502781504"/>
-        <c:axId val="1502783824"/>
+        <c:axId val="1656781184"/>
+        <c:axId val="1657310784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1502781504"/>
+        <c:axId val="1656781184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,14 +922,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502783824"/>
+        <c:crossAx val="1657310784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1502783824"/>
+        <c:axId val="1657310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502781504"/>
+        <c:crossAx val="1656781184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,7 +1042,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1572,11 +1570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1502816256"/>
-        <c:axId val="1502819008"/>
+        <c:axId val="1610829600"/>
+        <c:axId val="1611470624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1502816256"/>
+        <c:axId val="1610829600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,14 +1631,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502819008"/>
+        <c:crossAx val="1611470624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1502819008"/>
+        <c:axId val="1611470624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502816256"/>
+        <c:crossAx val="1610829600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1792,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'govt monitoring social media'!$C$1</c:f>
+              <c:f>'apps and privacy'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,7 +1815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'govt monitoring social media'!$A$2:$A$74</c:f>
+              <c:f>'apps and privacy'!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2045,7 +2043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'govt monitoring social media'!$C$2:$C$74</c:f>
+              <c:f>'apps and privacy'!$C$2:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2282,11 +2280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1502849040"/>
-        <c:axId val="1502851792"/>
+        <c:axId val="1657307312"/>
+        <c:axId val="1657345664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1502849040"/>
+        <c:axId val="1657307312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2341,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502851792"/>
+        <c:crossAx val="1657345664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1502851792"/>
+        <c:axId val="1657345664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,7 +2398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502849040"/>
+        <c:crossAx val="1657307312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2463,7 +2461,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2992,11 +2989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1501811328"/>
-        <c:axId val="1501813648"/>
+        <c:axId val="1657376768"/>
+        <c:axId val="1657379088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1501811328"/>
+        <c:axId val="1657376768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,14 +3050,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501813648"/>
+        <c:crossAx val="1657379088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1501813648"/>
+        <c:axId val="1657379088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501811328"/>
+        <c:crossAx val="1657376768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3173,7 +3170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3702,11 +3698,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1433090720"/>
-        <c:axId val="1433093472"/>
+        <c:axId val="1657395584"/>
+        <c:axId val="1657366304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1433090720"/>
+        <c:axId val="1657395584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,14 +3759,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433093472"/>
+        <c:crossAx val="1657366304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1433093472"/>
+        <c:axId val="1657366304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433090720"/>
+        <c:crossAx val="1657395584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3883,7 +3879,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3924,11 +3919,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'search anonimity'!$C$1</c:f>
+              <c:f>'search anonymity'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>search anonimity index_x000d_trends</c:v>
+                  <c:v>search anonymity index_x000d_trends</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3947,7 +3942,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'search anonimity'!$A$2:$A$74</c:f>
+              <c:f>'search anonymity'!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -4175,7 +4170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'search anonimity'!$C$2:$C$74</c:f>
+              <c:f>'search anonymity'!$C$2:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
@@ -4412,11 +4407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1501853760"/>
-        <c:axId val="1501856512"/>
+        <c:axId val="1657441536"/>
+        <c:axId val="1657443856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1501853760"/>
+        <c:axId val="1657441536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,14 +4468,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501856512"/>
+        <c:crossAx val="1657443856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1501856512"/>
+        <c:axId val="1657443856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501853760"/>
+        <c:crossAx val="1657441536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4593,7 +4588,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5122,11 +5116,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1502880352"/>
-        <c:axId val="1502883104"/>
+        <c:axId val="1472957200"/>
+        <c:axId val="1555491520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1502880352"/>
+        <c:axId val="1472957200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,14 +5177,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502883104"/>
+        <c:crossAx val="1555491520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1502883104"/>
+        <c:axId val="1555491520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,7 +5234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502880352"/>
+        <c:crossAx val="1472957200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5344,11 +5338,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'web anonimity'!$C$1</c:f>
+              <c:f>'web anonymity'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>web anonimity index trends</c:v>
+                  <c:v>web anonymity index trends</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5367,7 +5361,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'web anonimity'!$A$2:$A$79</c:f>
+              <c:f>'web anonymity'!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="78"/>
@@ -5595,7 +5589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'web anonimity'!$C$2:$C$79</c:f>
+              <c:f>'web anonymity'!$C$2:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -5832,11 +5826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1501868160"/>
-        <c:axId val="1501870912"/>
+        <c:axId val="1473075216"/>
+        <c:axId val="1473077264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1501868160"/>
+        <c:axId val="1473075216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,14 +5887,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501870912"/>
+        <c:crossAx val="1473077264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1501870912"/>
+        <c:axId val="1473077264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +5944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501868160"/>
+        <c:crossAx val="1473075216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11010,31 +11004,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13546,16 +13540,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -15400,7 +15394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -15411,10 +15405,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -16542,31 +16536,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>3</v>
@@ -19299,25 +19293,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -21597,8 +21591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21612,19 +21606,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -23480,19 +23474,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -25335,7 +25329,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25349,13 +25343,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>

--- a/indextrends/index/overall index.xlsx
+++ b/indextrends/index/overall index.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaowns/Documents/PrivacySearchQueries/indextrends/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="19200" windowHeight="19780" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="8" r:id="rId1"/>
-    <sheet name="communications privacy" sheetId="1" r:id="rId2"/>
-    <sheet name="apps and privacy" sheetId="2" r:id="rId3"/>
+    <sheet name="apps and privacy" sheetId="2" r:id="rId2"/>
+    <sheet name="communications privacy" sheetId="1" r:id="rId3"/>
     <sheet name="deleting apps" sheetId="3" r:id="rId4"/>
     <sheet name="deleting social media accounts" sheetId="4" r:id="rId5"/>
     <sheet name="search anonymity" sheetId="5" r:id="rId6"/>
     <sheet name="social media settings &amp; privacy" sheetId="6" r:id="rId7"/>
     <sheet name="web anonymity" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -180,10 +180,6 @@
 (non-relative)</t>
   </si>
   <si>
-    <t>search anonymity index
-trends</t>
-  </si>
-  <si>
     <t>search anonymity index scaled to governemt monitoring social media
 (non-relative)</t>
   </si>
@@ -195,6 +191,10 @@
   </si>
   <si>
     <t>web anonymity index scaled to government monitoring social media (non-relative)</t>
+  </si>
+  <si>
+    <t>search anonymity index
+trend</t>
   </si>
 </sst>
 </file>
@@ -333,6 +333,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>overall index trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -365,8 +391,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -383,18 +409,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>overall!$A$2:$A$74</c:f>
               <c:numCache>
@@ -621,8 +671,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>overall!$J$2:$J$74</c:f>
               <c:numCache>
@@ -849,7 +899,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -860,12 +910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1656781184"/>
-        <c:axId val="1657310784"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1656781184"/>
+        <c:axId val="-1544814704"/>
+        <c:axId val="-1544812384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1544814704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,14 +971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657310784"/>
+        <c:crossAx val="-1544812384"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1657310784"/>
+        <c:axId val="-1544812384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,6 +996,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -979,9 +1027,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656781184"/>
+        <c:crossAx val="-1544814704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1042,6 +1090,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>apps and privacy index trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,38 +1148,62 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'communications privacy'!$C$1</c:f>
+              <c:f>'apps and privacy'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>communications privacy index trend</c:v>
+                  <c:v>government monitoring social media index trend</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>'communications privacy'!$A$2:$A$74</c:f>
+              <c:f>'apps and privacy'!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -1330,235 +1428,235 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'communications privacy'!$C$2:$C$74</c:f>
+              <c:f>'apps and privacy'!$C$2:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.0</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47.0</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.0</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.0</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.0</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>58.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>59.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="49">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>76.0</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>80.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>80.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>80.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>77.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>80.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>79.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>83.0</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.0</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>84.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1569,12 +1667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1610829600"/>
-        <c:axId val="1611470624"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1610829600"/>
+        <c:axId val="-1543575232"/>
+        <c:axId val="-1543573184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1543575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,14 +1728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611470624"/>
+        <c:crossAx val="-1543573184"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1611470624"/>
+        <c:axId val="-1543573184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,6 +1753,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1688,9 +1784,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610829600"/>
+        <c:crossAx val="-1543575232"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1784,38 +1880,62 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'apps and privacy'!$C$1</c:f>
+              <c:f>'communications privacy'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>government monitoring social media index trend</c:v>
+                  <c:v>communications privacy index trend</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>'apps and privacy'!$A$2:$A$74</c:f>
+              <c:f>'communications privacy'!$A$2:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="73"/>
@@ -2040,235 +2160,235 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'apps and privacy'!$C$2:$C$74</c:f>
+              <c:f>'communications privacy'!$C$2:$C$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="28">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>67.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="39">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="47">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>79.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="50">
                   <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>69.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>67.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>66.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>78.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>70.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>58.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67.0</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>66.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>80.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.0</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>64.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2279,12 +2399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1657307312"/>
-        <c:axId val="1657345664"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1657307312"/>
+        <c:axId val="-1366508416"/>
+        <c:axId val="-1366506096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1366508416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,14 +2460,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657345664"/>
+        <c:crossAx val="-1366506096"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1657345664"/>
+        <c:axId val="-1366506096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2398,9 +2515,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657307312"/>
+        <c:crossAx val="-1366508416"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2461,6 +2578,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>deleting apps index trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2493,8 +2636,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2511,18 +2654,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'deleting apps'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -2749,8 +2916,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'deleting apps'!$C$2:$C$74</c:f>
               <c:numCache>
@@ -2977,7 +3144,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2988,12 +3155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1657376768"/>
-        <c:axId val="1657379088"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1657376768"/>
+        <c:axId val="-1478682720"/>
+        <c:axId val="-1477294560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1478682720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,14 +3216,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657379088"/>
+        <c:crossAx val="-1477294560"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1657379088"/>
+        <c:axId val="-1477294560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,9 +3271,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657376768"/>
+        <c:crossAx val="-1478682720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3170,6 +3334,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3202,8 +3367,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3220,18 +3385,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'deleting social media accounts'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -3458,8 +3647,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'deleting social media accounts'!$C$2:$C$74</c:f>
               <c:numCache>
@@ -3686,7 +3875,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3697,12 +3886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1657395584"/>
-        <c:axId val="1657366304"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1657395584"/>
+        <c:axId val="-1365159376"/>
+        <c:axId val="-1544842784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1365159376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,14 +3947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657366304"/>
+        <c:crossAx val="-1544842784"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1657366304"/>
+        <c:axId val="-1544842784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,9 +4002,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657395584"/>
+        <c:crossAx val="-1365159376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3879,6 +4065,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>search anonymity index trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3911,8 +4123,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3923,24 +4135,48 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>search anonymity index_x000d_trends</c:v>
+                  <c:v>search anonymity index_x000d_trend</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'search anonymity'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -4167,8 +4403,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'search anonymity'!$C$2:$C$74</c:f>
               <c:numCache>
@@ -4395,7 +4631,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4406,12 +4642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1657441536"/>
-        <c:axId val="1657443856"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1657441536"/>
+        <c:axId val="-1543562000"/>
+        <c:axId val="-1543559680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1543562000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,14 +4703,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657443856"/>
+        <c:crossAx val="-1543559680"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1657443856"/>
+        <c:axId val="-1543559680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4495,6 +4728,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4525,9 +4759,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657441536"/>
+        <c:crossAx val="-1543562000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4588,6 +4822,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4620,8 +4855,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4638,18 +4873,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'social media settings &amp; privacy'!$A$2:$A$74</c:f>
               <c:numCache>
@@ -4876,8 +5135,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'social media settings &amp; privacy'!$C$2:$C$74</c:f>
               <c:numCache>
@@ -5104,7 +5363,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -5115,12 +5374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1472957200"/>
-        <c:axId val="1555491520"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1472957200"/>
+        <c:axId val="-1477339152"/>
+        <c:axId val="-1476886976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1477339152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5177,14 +5435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1555491520"/>
+        <c:crossAx val="-1476886976"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1555491520"/>
+        <c:axId val="-1476886976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,9 +5490,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1472957200"/>
+        <c:crossAx val="-1477339152"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5330,8 +5586,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5348,18 +5604,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>'web anonymity'!$A$2:$A$79</c:f>
               <c:numCache>
@@ -5586,8 +5866,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'web anonymity'!$C$2:$C$79</c:f>
               <c:numCache>
@@ -5814,7 +6094,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -5825,12 +6105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1473075216"/>
-        <c:axId val="1473077264"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1473075216"/>
+        <c:axId val="-1477242080"/>
+        <c:axId val="-1449728672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1477242080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,14 +6166,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1473077264"/>
+        <c:crossAx val="-1449728672"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1473077264"/>
+        <c:axId val="-1449728672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,9 +6221,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1473075216"/>
+        <c:crossAx val="-1477242080"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10446,14 +10723,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10479,16 +10756,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>298450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10514,16 +10791,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>2025650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10550,14 +10827,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:rowOff>2228850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10585,15 +10862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10620,15 +10897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>2025650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10655,15 +10932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10692,13 +10969,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>273050</xdr:rowOff>
+      <xdr:rowOff>1822450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10985,9 +11262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13522,10 +13797,1136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>40544</v>
+      </c>
+      <c r="B2" s="3">
+        <v>672</v>
+      </c>
+      <c r="C2" s="3">
+        <f>CEILING(B2*(100/MAX($B$2:$B$74)),1)</f>
+        <v>48</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>40575</v>
+      </c>
+      <c r="B3" s="3">
+        <v>946</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C66" si="0">CEILING(B3*(100/MAX($B$2:$B$74)),1)</f>
+        <v>67</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>40603</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1058</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>40634</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1184</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>40664</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1062</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>40695</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1094</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>40725</v>
+      </c>
+      <c r="B8" s="3">
+        <v>972</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>40756</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1196</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>40787</v>
+      </c>
+      <c r="B10" s="3">
+        <v>970</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D10" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>40817</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1394</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="D11" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>40848</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1212</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>40878</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1149</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D13" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>40909</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1196</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D14" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>40940</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1195</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>40969</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D16" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>41000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1260</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D17" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>41030</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1061</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>41061</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1122</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D19" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>41091</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1147</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D20" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>41122</v>
+      </c>
+      <c r="B21" s="3">
+        <v>953</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>41153</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1157</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D22" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>41183</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1044</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>41214</v>
+      </c>
+      <c r="B24" s="3">
+        <v>929</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>41244</v>
+      </c>
+      <c r="B25" s="3">
+        <v>842</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>41275</v>
+      </c>
+      <c r="B26" s="3">
+        <v>992</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D26" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>41306</v>
+      </c>
+      <c r="B27" s="3">
+        <v>966</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D27" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D28" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>41365</v>
+      </c>
+      <c r="B29" s="3">
+        <v>987</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>41395</v>
+      </c>
+      <c r="B30" s="3">
+        <v>963</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>41426</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1313</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D31" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>41456</v>
+      </c>
+      <c r="B32" s="3">
+        <v>939</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D32" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>41487</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1135</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D34" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>41548</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1222</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>41579</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1294</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D36" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1213</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D37" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>41640</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1153</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>41671</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1164</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D39" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>41699</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1226</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D40" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>41730</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1326</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D41" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>41760</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1113</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D42" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>41791</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1068</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D43" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>41821</v>
+      </c>
+      <c r="B44" s="3">
+        <v>823</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>41852</v>
+      </c>
+      <c r="B45" s="3">
+        <v>922</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D45" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>41883</v>
+      </c>
+      <c r="B46" s="3">
+        <v>846</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D46" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>41913</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1056</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>41944</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1054</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D48" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>41974</v>
+      </c>
+      <c r="B49" s="3">
+        <v>953</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D49" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>42005</v>
+      </c>
+      <c r="B50" s="3">
+        <v>838</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D50" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>42036</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1058</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D51" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>42064</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D52" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>42095</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1151</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D53" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>42125</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D54" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>42156</v>
+      </c>
+      <c r="B55" s="3">
+        <v>897</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D55" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>42186</v>
+      </c>
+      <c r="B56" s="3">
+        <v>860</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>42217</v>
+      </c>
+      <c r="B57" s="3">
+        <v>974</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D57" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B58" s="3">
+        <v>875</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D58" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>42278</v>
+      </c>
+      <c r="B59" s="3">
+        <v>919</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D59" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>42309</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1119</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B61" s="3">
+        <v>926</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B62" s="3">
+        <v>944</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D62" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1088</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D63" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B64" s="3">
+        <v>937</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D64" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>42461</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1108</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D65" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>42491</v>
+      </c>
+      <c r="B66" s="3">
+        <v>987</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D66" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>42522</v>
+      </c>
+      <c r="B67" s="3">
+        <v>815</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C74" si="1">CEILING(B67*(100/MAX($B$2:$B$74)),1)</f>
+        <v>58</v>
+      </c>
+      <c r="D67" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>42552</v>
+      </c>
+      <c r="B68" s="3">
+        <v>809</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D68" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>42583</v>
+      </c>
+      <c r="B69" s="3">
+        <v>948</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D69" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>42614</v>
+      </c>
+      <c r="B70" s="3">
+        <v>940</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D70" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>42644</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1135</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D71" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>42675</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1425</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D72" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B73" s="3">
+        <v>872</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D73" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B74" s="3">
+        <v>909</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15390,1138 +16791,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>40544</v>
-      </c>
-      <c r="B2" s="3">
-        <v>672</v>
-      </c>
-      <c r="C2" s="3">
-        <f>CEILING(B2*(100/MAX($B$2:$B$74)),1)</f>
-        <v>48</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>40575</v>
-      </c>
-      <c r="B3" s="3">
-        <v>946</v>
-      </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C66" si="0">CEILING(B3*(100/MAX($B$2:$B$74)),1)</f>
-        <v>67</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>40603</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1058</v>
-      </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D4" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>40634</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1184</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D5" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>40664</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1062</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>40695</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1094</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>40725</v>
-      </c>
-      <c r="B8" s="3">
-        <v>972</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>40756</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1196</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>40787</v>
-      </c>
-      <c r="B10" s="3">
-        <v>970</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D10" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>40817</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1394</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="D11" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>40848</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1212</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1149</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D13" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>40909</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1196</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D14" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>40940</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1195</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D15" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>40969</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1140</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D16" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>41000</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1260</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="D17" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>41030</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1061</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D18" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>41061</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1122</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D19" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>41091</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1147</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D20" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>41122</v>
-      </c>
-      <c r="B21" s="3">
-        <v>953</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D21" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>41153</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1157</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="D22" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>41183</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1044</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="D23" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>41214</v>
-      </c>
-      <c r="B24" s="3">
-        <v>929</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D24" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>41244</v>
-      </c>
-      <c r="B25" s="3">
-        <v>842</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D25" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>41275</v>
-      </c>
-      <c r="B26" s="3">
-        <v>992</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D26" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>41306</v>
-      </c>
-      <c r="B27" s="3">
-        <v>966</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D27" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>41334</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1035</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D28" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>41365</v>
-      </c>
-      <c r="B29" s="3">
-        <v>987</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D29" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>41395</v>
-      </c>
-      <c r="B30" s="3">
-        <v>963</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D30" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>41426</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1313</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="D31" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>41456</v>
-      </c>
-      <c r="B32" s="3">
-        <v>939</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D32" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>41487</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1135</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D33" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>41518</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1035</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D34" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>41548</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1222</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="D35" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>41579</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1294</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="D36" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>41609</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1213</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="D37" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>41640</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1153</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>41671</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1164</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="D39" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>41699</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1226</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="D40" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>41730</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1326</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="D41" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>41760</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1113</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D42" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>41791</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1068</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D43" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>41821</v>
-      </c>
-      <c r="B44" s="3">
-        <v>823</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D44" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>41852</v>
-      </c>
-      <c r="B45" s="3">
-        <v>922</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D45" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>41883</v>
-      </c>
-      <c r="B46" s="3">
-        <v>846</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D46" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>41913</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1056</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D47" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>41944</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1054</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="D48" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>41974</v>
-      </c>
-      <c r="B49" s="3">
-        <v>953</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D49" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>42005</v>
-      </c>
-      <c r="B50" s="3">
-        <v>838</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D50" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>42036</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1058</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D51" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>42064</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1022</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D52" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>42095</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1151</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D53" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>42125</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1013</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D54" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>42156</v>
-      </c>
-      <c r="B55" s="3">
-        <v>897</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D55" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>42186</v>
-      </c>
-      <c r="B56" s="3">
-        <v>860</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D56" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>42217</v>
-      </c>
-      <c r="B57" s="3">
-        <v>974</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D57" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B58" s="3">
-        <v>875</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D58" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>42278</v>
-      </c>
-      <c r="B59" s="3">
-        <v>919</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D59" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>42309</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1119</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B61" s="3">
-        <v>926</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D61" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>42370</v>
-      </c>
-      <c r="B62" s="3">
-        <v>944</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D62" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>42401</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1088</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="D63" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>42430</v>
-      </c>
-      <c r="B64" s="3">
-        <v>937</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D64" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>42461</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1108</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D65" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>42491</v>
-      </c>
-      <c r="B66" s="3">
-        <v>987</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D66" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>42522</v>
-      </c>
-      <c r="B67" s="3">
-        <v>815</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" ref="C67:C74" si="1">CEILING(B67*(100/MAX($B$2:$B$74)),1)</f>
-        <v>58</v>
-      </c>
-      <c r="D67" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>42552</v>
-      </c>
-      <c r="B68" s="3">
-        <v>809</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D68" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>42583</v>
-      </c>
-      <c r="B69" s="3">
-        <v>948</v>
-      </c>
-      <c r="C69" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="D69" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>42614</v>
-      </c>
-      <c r="B70" s="3">
-        <v>940</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D70" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>42644</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1135</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="D71" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>42675</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1425</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="D72" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>42705</v>
-      </c>
-      <c r="B73" s="3">
-        <v>872</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D73" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>42736</v>
-      </c>
-      <c r="B74" s="3">
-        <v>909</v>
-      </c>
-      <c r="C74" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="D74" s="3">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19279,7 +19554,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21592,7 +21867,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21609,10 +21884,10 @@
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -23461,7 +23736,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25329,7 +25604,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25343,13 +25618,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
